--- a/Manufacturing Files/bitaxeSupraHex-702-BOM-JLC-res.xlsx
+++ b/Manufacturing Files/bitaxeSupraHex-702-BOM-JLC-res.xlsx
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
